--- a/问题优化与总结/res/doc/音视频格式.xlsx
+++ b/问题优化与总结/res/doc/音视频格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10308" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="17100" windowHeight="8052" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="FlV格式" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="PDF" sheetId="13" r:id="rId13"/>
     <sheet name="zip" sheetId="14" r:id="rId14"/>
     <sheet name="Unicode" sheetId="15" r:id="rId15"/>
+    <sheet name="rtmp-flv-h264" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1695,8 +1696,40 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>anshu-pc</author>
+  </authors>
+  <commentList>
+    <comment ref="K7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>anshu-pc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+包含 H264 SPS/PPS </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="310">
   <si>
     <t>FLV Header</t>
   </si>
@@ -2998,6 +3031,65 @@
 iso-885-1
 </t>
   </si>
+  <si>
+    <t>rtmp</t>
+  </si>
+  <si>
+    <t>BaseHeader
+（2bit fmt;... cs id）</t>
+  </si>
+  <si>
+    <t>Message 
+Header</t>
+  </si>
+  <si>
+    <t>Ext 
+timestamp</t>
+  </si>
+  <si>
+    <t>RTMP
+ChunkData</t>
+  </si>
+  <si>
+    <t>Video
+FLV
+Tag</t>
+  </si>
+  <si>
+    <t>Frame
+Type
+(4)</t>
+  </si>
+  <si>
+    <t>CodecID
+(4)</t>
+  </si>
+  <si>
+    <t>AVC
+Packet
+Type(8)</t>
+  </si>
+  <si>
+    <t>Composition
+Time
+(24)</t>
+  </si>
+  <si>
+    <t>H264</t>
+  </si>
+  <si>
+    <t>AVC
+Decoder
+Cofiguration
+Record</t>
+  </si>
+  <si>
+    <t>NAUL
+size</t>
+  </si>
+  <si>
+    <t>NAUL</t>
+  </si>
 </sst>
 </file>
 
@@ -3005,8 +3097,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -3050,11 +3142,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3073,21 +3171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3109,18 +3193,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3149,8 +3240,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3159,13 +3257,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3181,14 +3272,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3211,7 +3303,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3220,7 +3312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3232,13 +3336,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3256,7 +3378,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3268,7 +3444,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3280,163 +3552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3447,15 +3563,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3470,6 +3577,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3493,7 +3609,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3513,30 +3653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3555,10 +3671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3567,37 +3683,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3606,186 +3722,201 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4121,113 +4252,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:11">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="6" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:14">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4248,222 +4379,222 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="3:10">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="3:10">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" ht="43.2" spans="4:8">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4483,36 +4614,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="3:14">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4531,278 +4662,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:16">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" ht="28.8" spans="3:16">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="P5" s="7"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" ht="57.6" spans="3:23">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="M6" s="10" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="M6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="M7" s="6" t="s">
+      <c r="F7" s="15"/>
+      <c r="M7" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="3:16">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" ht="57.6" spans="3:16">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="M9" s="10" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="M9" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:14">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="M10" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="3:16">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="M11" s="7" t="s">
+      <c r="F11" s="15"/>
+      <c r="M11" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" ht="72" spans="3:14">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="M14" s="7" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="M14" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="15" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" ht="72" spans="3:11">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" ht="18" customHeight="1"/>
   </sheetData>
@@ -4823,268 +4954,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:10">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="4:10">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="4:10">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" ht="28.8" spans="5:10">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" ht="43.2" spans="5:10">
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="6:10">
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" ht="86.4" spans="6:10">
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="6:10">
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="6:10">
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="6:10">
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="6:10">
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="7">
+      <c r="E27" s="15">
         <v>553</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="5:10">
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5104,76 +5235,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:9">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" ht="43.2" spans="4:17">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="11" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="4:17">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" ht="57.6" spans="4:7">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="9" t="s">
         <v>272</v>
       </c>
@@ -5185,198 +5316,198 @@
       <c r="D8" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="9" spans="5:10">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="5:16">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="4:9">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" ht="43.2" spans="4:19">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="10" t="s">
+      <c r="O12" s="16"/>
+      <c r="P12" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="11" t="s">
+      <c r="Q12" s="15"/>
+      <c r="R12" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="4:17">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7" t="s">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" ht="43.2" spans="4:19">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="4:9">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" ht="57.6" spans="4:19">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="10" t="s">
+      <c r="I17" s="15"/>
+      <c r="J17" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="10" t="s">
+      <c r="K17" s="15"/>
+      <c r="L17" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7" t="s">
+      <c r="O17" s="15"/>
+      <c r="P17" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
     </row>
     <row r="18" spans="4:9">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5389,29 +5520,105 @@
   <sheetPr/>
   <dimension ref="E4:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="4" ht="57.6" spans="5:6">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="5:6">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C4:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" ht="57.6" spans="3:7">
+      <c r="C4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" ht="57.6" spans="6:10">
+      <c r="F6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="10:11">
+      <c r="J7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="10:12">
+      <c r="J8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5426,27 +5633,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5"/>
@@ -5473,49 +5680,49 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="2" ht="18" spans="2:2">
-      <c r="B2" s="31"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="25"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" ht="65" customHeight="1" spans="2:13">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="10" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5535,128 +5742,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="8.88888888888889" style="5"/>
-    <col min="5" max="5" width="10" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="4" width="8.88888888888889" style="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="38" customHeight="1" spans="2:6">
-      <c r="B4" s="25"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" ht="43.2" spans="2:13">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="10" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="158.4" spans="2:9">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="2:2">
-      <c r="B7" s="28"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="25"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" ht="43.2" spans="2:13">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="24" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="29" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="2:5">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="30">
+      <c r="B36" s="35">
         <v>14</v>
       </c>
     </row>
@@ -5679,137 +5886,137 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="5" spans="4:7">
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" ht="43.2" spans="3:21">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="10" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="7" ht="100.8" spans="3:21">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row r="9" spans="4:7">
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" ht="43.2" spans="3:14">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="10" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" ht="100.8" spans="3:9">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="27" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5831,294 +6038,294 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:10">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="3:10">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="3:10">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="3:10">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="3:10">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="3:10">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="3:10">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="3:10">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6137,28 +6344,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:14">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6177,1118 +6384,1118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="14"/>
+    <col min="1" max="16384" width="8.88888888888889" style="20"/>
   </cols>
   <sheetData>
     <row r="3" ht="14.4" spans="4:8">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="4:19">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="16" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="4:19">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="4:19">
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
     </row>
     <row r="9" spans="4:19">
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="4:19">
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="4:19">
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="16" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="16" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="17" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="16" t="s">
+      <c r="M18" s="23"/>
+      <c r="N18" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17" t="s">
+      <c r="O18" s="22"/>
+      <c r="P18" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="16" t="s">
+      <c r="Q18" s="23"/>
+      <c r="R18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="16"/>
+      <c r="S18" s="22"/>
     </row>
     <row r="19" spans="4:19">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="4:11">
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="4:5">
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="5:7">
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="5:20">
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16" t="s">
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="16" t="s">
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
     </row>
     <row r="26" spans="5:20">
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16" t="s">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17" t="s">
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="16" t="s">
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="R26" s="16"/>
-      <c r="S26" s="17" t="s">
+      <c r="R26" s="22"/>
+      <c r="S26" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="T26" s="17"/>
+      <c r="T26" s="23"/>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="5:20">
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="16" t="s">
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="16" t="s">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
     </row>
     <row r="29" spans="5:20">
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="16" t="s">
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17" t="s">
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
     </row>
     <row r="30" ht="14.4" spans="5:8">
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="6:9">
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="15"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="6:17">
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="17" t="s">
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="16" t="s">
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" spans="6:15">
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17" t="s">
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
     </row>
     <row r="35" spans="6:9">
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="15"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="6:17">
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17" t="s">
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="16" t="s">
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O36" s="17" t="s">
+      <c r="O36" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
     </row>
     <row r="37" spans="6:9">
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17" t="s">
+      <c r="G37" s="22"/>
+      <c r="H37" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="17"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="6:8">
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="6:17">
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17" t="s">
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="16" t="s">
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O39" s="17" t="s">
+      <c r="O39" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
     </row>
     <row r="40" ht="14.4" spans="6:10">
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17" t="s">
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="6:8">
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="6:8">
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" spans="6:17">
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17" t="s">
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="16" t="s">
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O43" s="17" t="s">
+      <c r="O43" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
     </row>
     <row r="44" spans="6:10">
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="20" t="s">
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="7:14">
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17" t="s">
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
     </row>
     <row r="47" spans="7:14">
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="17" t="s">
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="N47" s="17"/>
+      <c r="N47" s="23"/>
     </row>
     <row r="48" spans="7:9">
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="7:14">
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
     </row>
     <row r="50" spans="7:14">
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
     </row>
     <row r="51" spans="7:14">
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
     </row>
     <row r="52" spans="7:14">
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
     </row>
     <row r="53" spans="7:14">
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17" t="s">
+      <c r="H53" s="22"/>
+      <c r="I53" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="16" t="s">
+      <c r="J53" s="23"/>
+      <c r="K53" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
     </row>
     <row r="54" spans="7:14">
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17" t="s">
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
     </row>
     <row r="55" spans="7:14">
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17" t="s">
+      <c r="H55" s="22"/>
+      <c r="I55" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="16" t="s">
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="N55" s="16"/>
+      <c r="N55" s="22"/>
     </row>
     <row r="56" spans="7:9">
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" spans="7:14">
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
     </row>
     <row r="58" spans="7:14">
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
     </row>
     <row r="59" spans="7:14">
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
     </row>
     <row r="60" spans="7:14">
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
     </row>
     <row r="61" spans="7:14">
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17" t="s">
+      <c r="H61" s="22"/>
+      <c r="I61" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="J61" s="17"/>
-      <c r="K61" s="16" t="s">
+      <c r="J61" s="23"/>
+      <c r="K61" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
     </row>
     <row r="62" ht="14.4" spans="7:11">
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="17" t="s">
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63" spans="7:11">
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="17" t="s">
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64" ht="70.8" spans="7:14">
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="21" t="s">
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="16" t="s">
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65" ht="27.6" spans="7:11">
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="21" t="s">
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="66" spans="7:14">
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="41.4" spans="7:11">
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="21" t="s">
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="27" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="6:8">
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
     </row>
     <row r="70" spans="6:17">
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="17" t="s">
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="16" t="s">
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O70" s="17" t="s">
+      <c r="O70" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
     </row>
     <row r="71" spans="6:17">
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="17" t="s">
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="16" t="s">
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
     </row>
     <row r="72" spans="6:8">
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
     </row>
     <row r="73" spans="6:17">
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="17" t="s">
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="16" t="s">
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O73" s="17" t="s">
+      <c r="O73" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
     </row>
     <row r="74" ht="42" spans="6:14">
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="21" t="s">
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="K74" s="16" t="s">
+      <c r="K74" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
     </row>
     <row r="75" spans="6:8">
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
     </row>
     <row r="76" spans="6:17">
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="17" t="s">
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="16" t="s">
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O76" s="17" t="s">
+      <c r="O76" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
     </row>
     <row r="77" ht="55.8" spans="6:14">
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="21" t="s">
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K77" s="16" t="s">
+      <c r="K77" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
     </row>
     <row r="78" spans="6:13">
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="16" t="s">
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
     </row>
     <row r="79" ht="14.4" spans="6:8">
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
     </row>
     <row r="80" spans="6:17">
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="17" t="s">
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="16" t="s">
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="O80" s="17" t="s">
+      <c r="O80" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
     </row>
     <row r="81" ht="42" spans="6:14">
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="21" t="s">
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="K81" s="16" t="s">
+      <c r="K81" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7307,307 +7514,307 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="4:7">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="4:13">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="4:14">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" ht="144" spans="3:8">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="3:18">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="3:16">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="3:18">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="3:16">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
     </row>
     <row r="19" spans="3:16">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" spans="3:16">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" ht="28.8" spans="3:3">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="17" t="s">
         <v>174</v>
       </c>
     </row>

--- a/问题优化与总结/res/doc/音视频格式.xlsx
+++ b/问题优化与总结/res/doc/音视频格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17100" windowHeight="8052" firstSheet="8" activeTab="15"/>
+    <workbookView windowWidth="21780" windowHeight="8940" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="FlV格式" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="zip" sheetId="14" r:id="rId14"/>
     <sheet name="Unicode" sheetId="15" r:id="rId15"/>
     <sheet name="rtmp-flv-h264" sheetId="16" r:id="rId16"/>
+    <sheet name="ts" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1724,12 +1725,77 @@
         </r>
       </text>
     </comment>
+    <comment ref="C20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>anshu-pc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+NALU = NALU Header + SODB // 定义1
+NALU = NALU Header + RBSP // 定义2
+NALU = NALU Header + EBSP // 定义3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>anshu-pc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+nal_unit_type
+NAL 单元和 RBSP 语法结构的内容 
+0	未指定	 
+1	一个非IDR图像的编码条带 slice_layer_without_partitioning_rbsp( ) 
+2	编码条带数据分割块A slice_data_partition_a_layer_rbsp( ) 
+3	编码条带数据分割块B slice_data_partition_b_layer_rbsp( ) 
+4	编码条带数据分割块C slice_data_partition_c_layer_rbsp( )
+⭐5	IDR图像的编码条带 slice_layer_without_partitioning_rbsp( )
+⭐6	辅助增强信息 (SEI) sei_rbsp( )	 
+⭐7	序列参数集 seq_parameter_set_rbsp( )	 
+⭐8	图像参数集 pic_parameter_set_rbsp( )	 
+9	访问单元分隔符 access_unit_delimiter_rbsp( )	 
+10	序列结尾 end_of_seq_rbsp( )	 
+11	流结尾 end_of_stream_rbsp( )	 
+12	填充数据 filler_data_rbsp( )	 
+13	序列参数集扩展 seq_parameter_set_extension_rbsp( )
+14...18	保留	 
+19	未分割的辅助编码图像的编码条带 slice_layer_without_partitioning_rbsp( )	 
+20...23	保留	 
+24...31	未指定</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="335">
   <si>
     <t>FLV Header</t>
   </si>
@@ -3088,7 +3154,185 @@
 size</t>
   </si>
   <si>
-    <t>NAUL</t>
+    <t>NALU</t>
+  </si>
+  <si>
+    <r>
+      <t>H264</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将其组织成为序列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(GOP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、图片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(pictrue)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Slice)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、宏块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Macroblock)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、子块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(subblock)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五个层次</t>
+    </r>
+  </si>
+  <si>
+    <t>序列(GOP)两个I帧之间，即变换不大的图像归为一个组</t>
+  </si>
+  <si>
+    <t>图片(pictrue)：多个slice组成完整图片</t>
+  </si>
+  <si>
+    <t>片(Slice):RBSP作为作为负载数据,为限制误码 的 扩散和传输，避免NALU长度超过MTU大小限制。I Slice只包含 I 块， P Slice可包含 P 和 I 块，而 B Slice可包含 B 和 I 块</t>
+  </si>
+  <si>
+    <t>宏块（Macroblock）:运动补偿基本单元</t>
+  </si>
+  <si>
+    <t>子块（subblock）:（DCT操作的基本单元）</t>
+  </si>
+  <si>
+    <t>NAL Header</t>
+  </si>
+  <si>
+    <t>forbidden_bit 1bit|
+nal_ref_bit 2bit|
+type 5bit|</t>
+  </si>
+  <si>
+    <t>RBSP</t>
+  </si>
+  <si>
+    <t>Slide header</t>
+  </si>
+  <si>
+    <t>Macroblock ...</t>
+  </si>
+  <si>
+    <t>ts层</t>
+  </si>
+  <si>
+    <t>ts header(4byte)</t>
+  </si>
+  <si>
+    <t>adaptation field(x byte)</t>
+  </si>
+  <si>
+    <t>payload(184~x byte)</t>
+  </si>
+  <si>
+    <t>tes层</t>
+  </si>
+  <si>
+    <t>pes header(6byte)</t>
+  </si>
+  <si>
+    <t>optionnal pes header(x byte)</t>
+  </si>
+  <si>
+    <t>pes payload(x byte)</t>
+  </si>
+  <si>
+    <t>es层</t>
+  </si>
+  <si>
+    <t>nal header(4 byte)</t>
+  </si>
+  <si>
+    <t>nal type</t>
+  </si>
+  <si>
+    <t>h264 data(x byte)</t>
+  </si>
+  <si>
+    <t>adts header(7 byte)</t>
+  </si>
+  <si>
+    <t>aac data(x byte)</t>
   </si>
 </sst>
 </file>
@@ -3096,12 +3340,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3115,6 +3359,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3142,8 +3392,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3157,21 +3423,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3208,13 +3482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3223,9 +3490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3247,8 +3513,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3262,28 +3529,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3303,7 +3559,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3324,7 +3580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3336,7 +3604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3348,19 +3622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3378,7 +3646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3390,13 +3670,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3408,61 +3784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3474,19 +3796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3498,43 +3808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3546,13 +3820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3563,6 +3831,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3577,15 +3860,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3608,7 +3882,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3637,32 +3931,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3671,10 +3939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3683,137 +3951,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3823,106 +4091,142 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4252,70 +4556,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:11">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="2" t="s">
         <v>3</v>
       </c>
@@ -4337,27 +4641,27 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="2" t="s">
         <v>3</v>
       </c>
@@ -4379,7 +4683,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
@@ -4391,16 +4695,16 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="3:10">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="2" t="s">
@@ -4411,57 +4715,57 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="3:10">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="43.2" spans="4:8">
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="2" t="s">
@@ -4472,33 +4776,33 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="2" t="s">
@@ -4509,29 +4813,29 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="2" t="s">
@@ -4542,29 +4846,29 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="2" t="s">
@@ -4575,26 +4879,26 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4614,7 +4918,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6">
@@ -4626,24 +4930,24 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="3:14">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="15" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4662,7 +4966,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:16">
@@ -4680,22 +4984,22 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" ht="28.8" spans="3:16">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="P5" s="15"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" ht="57.6" spans="3:23">
       <c r="C6" s="2" t="s">
@@ -4704,47 +5008,47 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="22"/>
       <c r="M7" s="2" t="s">
         <v>208</v>
       </c>
@@ -4753,61 +5057,61 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="3:16">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="P8" s="15"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" ht="57.6" spans="3:16">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="M9" s="17" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="M9" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" ht="21" customHeight="1" spans="3:14">
       <c r="C10" s="2" t="s">
@@ -4822,54 +5126,54 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="3:16">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="M11" s="15" t="s">
+      <c r="F11" s="22"/>
+      <c r="M11" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="P11" s="15"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" ht="72" spans="3:14">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="22" t="s">
         <v>228</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -4884,56 +5188,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="22" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" ht="72" spans="3:11">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" ht="18" customHeight="1"/>
   </sheetData>
@@ -4954,7 +5258,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:10">
@@ -4981,15 +5285,15 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="4:10">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="2" t="s">
@@ -5003,41 +5307,41 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="2" t="s">
@@ -5051,41 +5355,41 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" ht="28.8" spans="5:10">
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" ht="43.2" spans="5:10">
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="2" t="s">
@@ -5099,123 +5403,123 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="6:10">
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" ht="86.4" spans="6:10">
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="6:10">
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="6:10">
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="6:10">
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="6:10">
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="15">
+      <c r="E27" s="22">
         <v>553</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="5:10">
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5235,7 +5539,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:9">
@@ -5249,74 +5553,74 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" ht="43.2" spans="4:17">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="22"/>
+      <c r="L5" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17" t="s">
+      <c r="M5" s="18"/>
+      <c r="N5" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="5" t="s">
+      <c r="O5" s="22"/>
+      <c r="P5" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="4:17">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" ht="57.6" spans="4:7">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="4:7">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="10" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5331,24 +5635,24 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="5:16">
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="4:9">
       <c r="D11" s="2" t="s">
@@ -5361,101 +5665,101 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" ht="43.2" spans="4:19">
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="5" t="s">
+      <c r="M12" s="22"/>
+      <c r="N12" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17" t="s">
+      <c r="O12" s="18"/>
+      <c r="P12" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="5" t="s">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="S12" s="16"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="4:17">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" ht="43.2" spans="4:19">
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
+      <c r="K14" s="22"/>
+      <c r="L14" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="4:9">
       <c r="D16" s="2" t="s">
@@ -5468,46 +5772,46 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" ht="57.6" spans="4:19">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="17" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="17" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
     </row>
     <row r="18" spans="4:9">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5527,18 +5831,18 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="4" ht="57.6" spans="5:6">
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="5:6">
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="5:6">
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5549,76 +5853,432 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:L8"/>
+  <dimension ref="C4:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:J6"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="3" width="8.88888888888889" style="10"/>
+    <col min="4" max="4" width="11.8888888888889" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="4" ht="57.6" spans="3:7">
       <c r="C4" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="6:10">
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="16" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="7" ht="72" spans="10:11">
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="23" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="10:12">
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="24" t="s">
         <v>309</v>
       </c>
+    </row>
+    <row r="11" ht="18" spans="3:24">
+      <c r="C11" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="3:24">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="3:24">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="3:24">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+    </row>
+    <row r="15" spans="3:24">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="3:24">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="20" ht="115.2" spans="3:7">
+      <c r="C20" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="6:14">
+      <c r="F21" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C4:V9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11">
+      <c r="C4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="3:17">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="3:17">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="3:22">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="3:22">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="V9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -5633,27 +6293,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5"/>
@@ -5680,49 +6340,49 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="2" ht="18" spans="2:2">
-      <c r="B2" s="36"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="7"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" ht="65" customHeight="1" spans="2:13">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5742,128 +6402,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="8.88888888888889" style="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="4" width="8.88888888888889" style="10"/>
+    <col min="5" max="5" width="10" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="4" ht="38" customHeight="1" spans="2:6">
-      <c r="B4" s="7"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" ht="43.2" spans="2:13">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="17" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="158.4" spans="2:9">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="2:2">
-      <c r="B7" s="33"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" ht="43.2" spans="2:13">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="30" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="34" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="2:5">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="35">
+      <c r="B36" s="47">
         <v>14</v>
       </c>
     </row>
@@ -5886,137 +6546,137 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="5" spans="4:7">
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" ht="43.2" spans="3:21">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="17" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" ht="100.8" spans="3:21">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="17" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="5" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="18"/>
+      <c r="N7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="9" t="s">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="9" spans="4:7">
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" ht="43.2" spans="3:14">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="17" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" ht="100.8" spans="3:9">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="32" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6038,294 +6698,294 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:10">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="3:10">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="3:10">
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="3:10">
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="3:10">
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="3:10">
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="3:10">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="3:10">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="3:10">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6344,28 +7004,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:14">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="15" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6384,1118 +7044,1118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="20"/>
+    <col min="1" max="16384" width="8.88888888888889" style="32"/>
   </cols>
   <sheetData>
     <row r="3" ht="14.4" spans="4:8">
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="33" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="4:19">
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="22" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="22" t="s">
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
     </row>
     <row r="6" spans="4:19">
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="22" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
     </row>
     <row r="7" spans="4:19">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
     </row>
     <row r="9" spans="4:19">
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="4:19">
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
     </row>
     <row r="12" spans="4:7">
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="4:19">
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="22" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="22" t="s">
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
     </row>
     <row r="17" spans="4:19">
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22" t="s">
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23" t="s">
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="4:19">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="22" t="s">
+      <c r="M18" s="35"/>
+      <c r="N18" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23" t="s">
+      <c r="O18" s="34"/>
+      <c r="P18" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="22" t="s">
+      <c r="Q18" s="35"/>
+      <c r="R18" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="22"/>
+      <c r="S18" s="34"/>
     </row>
     <row r="19" spans="4:19">
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="4:11">
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="4:5">
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="5:7">
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="5:20">
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23" t="s">
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="22" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="22" t="s">
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="5:20">
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23" t="s">
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="22" t="s">
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="R26" s="22"/>
-      <c r="S26" s="23" t="s">
+      <c r="R26" s="34"/>
+      <c r="S26" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="T26" s="23"/>
+      <c r="T26" s="35"/>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="5:20">
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23" t="s">
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="22" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="22" t="s">
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
     </row>
     <row r="29" spans="5:20">
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23" t="s">
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="22" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23" t="s">
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
     </row>
     <row r="30" ht="14.4" spans="5:8">
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="6:9">
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="21"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="6:17">
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23" t="s">
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="22" t="s">
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
     </row>
     <row r="34" spans="6:15">
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23" t="s">
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
     </row>
     <row r="35" spans="6:9">
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="21"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" spans="6:17">
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23" t="s">
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="22" t="s">
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O36" s="23" t="s">
+      <c r="O36" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="6:9">
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23" t="s">
+      <c r="G37" s="34"/>
+      <c r="H37" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="6:8">
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="6:17">
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23" t="s">
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="22" t="s">
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="O39" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
     </row>
     <row r="40" ht="14.4" spans="6:10">
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="6:8">
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="6:8">
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="6:17">
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23" t="s">
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="22" t="s">
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
     </row>
     <row r="44" spans="6:10">
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="26" t="s">
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="7:9">
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
     </row>
     <row r="46" spans="7:14">
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23" t="s">
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
     </row>
     <row r="47" spans="7:14">
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="23" t="s">
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="N47" s="23"/>
+      <c r="N47" s="35"/>
     </row>
     <row r="48" spans="7:9">
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
     </row>
     <row r="49" spans="7:14">
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
     </row>
     <row r="50" spans="7:14">
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
     </row>
     <row r="51" spans="7:14">
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
     </row>
     <row r="52" spans="7:14">
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
     </row>
     <row r="53" spans="7:14">
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23" t="s">
+      <c r="H53" s="34"/>
+      <c r="I53" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="J53" s="23"/>
-      <c r="K53" s="22" t="s">
+      <c r="J53" s="35"/>
+      <c r="K53" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
     </row>
     <row r="54" spans="7:14">
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23" t="s">
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
     </row>
     <row r="55" spans="7:14">
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="23" t="s">
+      <c r="H55" s="34"/>
+      <c r="I55" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="22" t="s">
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="N55" s="22"/>
+      <c r="N55" s="34"/>
     </row>
     <row r="56" spans="7:9">
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
     </row>
     <row r="57" spans="7:14">
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
     </row>
     <row r="58" spans="7:14">
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
     </row>
     <row r="59" spans="7:14">
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
     </row>
     <row r="60" spans="7:14">
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
     </row>
     <row r="61" spans="7:14">
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23" t="s">
+      <c r="H61" s="34"/>
+      <c r="I61" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J61" s="23"/>
-      <c r="K61" s="22" t="s">
+      <c r="J61" s="35"/>
+      <c r="K61" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
     </row>
     <row r="62" ht="14.4" spans="7:11">
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23" t="s">
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="35" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63" spans="7:11">
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23" t="s">
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="35" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64" ht="70.8" spans="7:14">
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="27" t="s">
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="22" t="s">
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="34" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65" ht="27.6" spans="7:11">
-      <c r="G65" s="22" t="s">
+      <c r="G65" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="27" t="s">
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="39" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="66" spans="7:14">
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="34" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" ht="41.4" spans="7:11">
-      <c r="G68" s="22" t="s">
+      <c r="G68" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="27" t="s">
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="39" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="6:8">
-      <c r="F69" s="24" t="s">
+      <c r="F69" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
     </row>
     <row r="70" spans="6:17">
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="23" t="s">
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="22" t="s">
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O70" s="23" t="s">
+      <c r="O70" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
     </row>
     <row r="71" spans="6:17">
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="23" t="s">
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="22" t="s">
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
     </row>
     <row r="72" spans="6:8">
-      <c r="F72" s="24" t="s">
+      <c r="F72" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
     </row>
     <row r="73" spans="6:17">
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="23" t="s">
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="22" t="s">
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O73" s="23" t="s">
+      <c r="O73" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
     </row>
     <row r="74" ht="42" spans="6:14">
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="27" t="s">
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="K74" s="22" t="s">
+      <c r="K74" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
     </row>
     <row r="75" spans="6:8">
-      <c r="F75" s="24" t="s">
+      <c r="F75" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="6:17">
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="23" t="s">
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="22" t="s">
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O76" s="23" t="s">
+      <c r="O76" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
     </row>
     <row r="77" ht="55.8" spans="6:14">
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="27" t="s">
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="K77" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
     </row>
     <row r="78" spans="6:13">
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="22" t="s">
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
     </row>
     <row r="79" ht="14.4" spans="6:8">
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
     </row>
     <row r="80" spans="6:17">
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="23" t="s">
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="22" t="s">
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O80" s="23" t="s">
+      <c r="O80" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
     </row>
     <row r="81" ht="42" spans="6:14">
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="27" t="s">
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="K81" s="22" t="s">
+      <c r="K81" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7514,7 +8174,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
@@ -7534,26 +8194,26 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="4:13">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" s="2" t="s">
@@ -7561,23 +8221,23 @@
       </c>
     </row>
     <row r="6" spans="4:14">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="15" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="19" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7587,61 +8247,61 @@
       </c>
     </row>
     <row r="8" ht="144" spans="3:8">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="3:18">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7654,167 +8314,167 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
     </row>
     <row r="15" spans="3:16">
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="3:18">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
     </row>
     <row r="17" spans="3:16">
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
     </row>
     <row r="19" spans="3:16">
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="3:16">
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" ht="28.8" spans="3:3">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="29" t="s">
         <v>174</v>
       </c>
     </row>
